--- a/prompt_image.xlsx
+++ b/prompt_image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHISK_COOKIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DFED11-BC70-4F4E-B483-CDBCACEC8E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13CBB9E-1A8C-4EC0-9715-B45E111ABF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="960" windowWidth="21720" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="1410" windowWidth="21720" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -28,20 +28,44 @@
     <t>PROMPT</t>
   </si>
   <si>
-    <t>IMAGE</t>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>MEDIA_CATEGORY_SUBJECT</t>
+  </si>
+  <si>
+    <t>CAPTION_SUBJECT</t>
+  </si>
+  <si>
+    <t>MEDIA_CATEGORY_SCENE</t>
+  </si>
+  <si>
+    <t>CAPTION_SCENE</t>
+  </si>
+  <si>
+    <t>MEDIA_CATEGORY_STYLE</t>
+  </si>
+  <si>
+    <t>CAPTION_STYLE</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>cat</t>
   </si>
   <si>
     <t>C:\Users\LYN HIEN\Downloads\photo_2025-09-09_08-56-44.jpg</t>
   </si>
   <si>
-    <t>bird</t>
+    <t>hello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,6 +88,25 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF041E49"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -142,6 +185,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,112 +403,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="26" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3353,6 +3422,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>